--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/HÒA THANH/Công nợ hòa thanh.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/HÒA THANH/Công nợ hòa thanh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>DOANH THU ĐẠI LÝ THANH HÒA SAU 29/02/2020</t>
+  </si>
+  <si>
+    <t>Ngày 3/10/2020 Thanh Hòa trả hàng 2 hộp 1CX45</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +180,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -192,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -323,12 +332,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,71 +441,50 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,46 +519,89 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -834,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,9 +892,10 @@
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -862,7 +908,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>26</v>
@@ -875,54 +921,54 @@
       <c r="H2" s="9"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="37" t="s">
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="62"/>
+    <row r="6" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
@@ -941,173 +987,173 @@
       <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" spans="1:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="I6" s="65"/>
+    </row>
+    <row r="7" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62">
         <v>1070</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="46">
         <v>43904</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="43" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="17">
         <v>24</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="35">
         <v>455000</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="35">
         <f t="shared" ref="H7:H8" si="0">G7*F7</f>
         <v>10920000</v>
       </c>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="77" t="s">
+    <row r="8" spans="1:27" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="20">
         <v>12</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="36">
         <v>465000</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="36">
         <f t="shared" si="0"/>
         <v>5580000</v>
       </c>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="69">
         <v>623</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="71">
         <v>44041</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="43" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="22">
         <v>24</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="37">
         <v>455000</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="37">
         <f t="shared" ref="H9:H13" si="1">F9*G9</f>
         <v>10920000</v>
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="77" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="44" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="24">
         <v>24</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="38">
         <v>485000</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="38">
         <f t="shared" si="1"/>
         <v>11640000</v>
       </c>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="77">
         <v>660</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="50">
         <v>44065</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="43" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="26">
         <v>24</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="37">
         <v>225000</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="39">
         <f t="shared" si="1"/>
         <v>5400000</v>
       </c>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="78" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="78"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="45" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="29">
         <v>12</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="42">
         <v>455000</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="40">
         <f t="shared" si="1"/>
         <v>5460000</v>
       </c>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="77" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="79"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="31">
         <v>12</v>
       </c>
-      <c r="G13" s="71">
+      <c r="G13" s="38">
         <v>485000</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="41">
         <f t="shared" si="1"/>
         <v>5820000</v>
       </c>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
@@ -1121,6 +1167,39 @@
       </c>
       <c r="I14" s="15"/>
     </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N15" s="80">
+        <v>818</v>
+      </c>
+      <c r="O15" s="81">
+        <v>44107</v>
+      </c>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="80">
+        <v>2</v>
+      </c>
+      <c r="U15" s="82">
+        <v>225000</v>
+      </c>
+      <c r="V15" s="83">
+        <f t="shared" ref="V15" si="2">U15*T15</f>
+        <v>450000</v>
+      </c>
+      <c r="W15" s="84">
+        <v>0.35</v>
+      </c>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="86"/>
+    </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
@@ -1140,28 +1219,28 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G20" s="32">
-        <f>G19-G18</f>
-        <v>14150000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="32">
+        <f>G19-G20-G18</f>
+        <v>13700000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="I5:I6"/>
@@ -1173,6 +1252,14 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.48" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
